--- a/biology/Zoologie/Anabate_vergeté/Anabate_vergeté.xlsx
+++ b/biology/Zoologie/Anabate_vergeté/Anabate_vergeté.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Anabate_verget%C3%A9</t>
+          <t>Anabate_vergeté</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Syndactyla subalaris
-L’Anabate vergeté[1] (Syndactyla subalaris) est une espèce d'oiseaux de la famille des Furnariidae vivant en Amérique du Sud et Centrale.
+L’Anabate vergeté (Syndactyla subalaris) est une espèce d'oiseaux de la famille des Furnariidae vivant en Amérique du Sud et Centrale.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Anabate_verget%C3%A9</t>
+          <t>Anabate_vergeté</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Population</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Malgré un léger déclin l'espèce est tout de même assez commune sur son aire de répartition avec une estimation entre 500 000 et 5 000 000 individus adultes (Partners in Flight 2019).
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Anabate_verget%C3%A9</t>
+          <t>Anabate_vergeté</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (3 avril 2023)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (3 avril 2023) :
 Syndactyla subalaris colligata Zimmer, 1935
 Syndactyla subalaris lineata (Lawrence, 1865) - Costa Rica et Ouest du Panama
 Syndactyla subalaris mentalis (Taczanowski &amp; Berlepsch, 1885) - Est de l'Équateur jusqu'au centre du Pérou
@@ -563,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Anabate_verget%C3%A9</t>
+          <t>Anabate_vergeté</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,10 +597,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Syndactyla subalaris (P.L.Sclater, 1859)[1].
-Ce taxon porte en français le nom vernaculaire ou normalisé suivant : Anabate vergeté[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Syndactyla subalaris (P.L.Sclater, 1859).
+Ce taxon porte en français le nom vernaculaire ou normalisé suivant : Anabate vergeté.
 </t>
         </is>
       </c>
